--- a/VS_LOAN.Core.Web/App_Data/TemplateReport/ImportRevokeDebtTemplate.xlsx
+++ b/VS_LOAN.Core.Web/App_Data/TemplateReport/ImportRevokeDebtTemplate.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\outsource\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QuangPhat\OneDrive\Máy tính\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="106">
   <si>
     <t>SỐ TIỀN GÓP HÀNG THÁNG</t>
   </si>
@@ -281,9 +281,6 @@
     <t>200216-341319287-1616085</t>
   </si>
   <si>
-    <t>Nguyễn Hải Phong</t>
-  </si>
-  <si>
     <t>CDL</t>
   </si>
   <si>
@@ -330,6 +327,21 @@
   </si>
   <si>
     <t>4840.22</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>Quận/Huyện</t>
+  </si>
+  <si>
+    <t>Tỉnh/Thành</t>
+  </si>
+  <si>
+    <t>Id( chỉ 1 số)</t>
+  </si>
+  <si>
+    <t>Id(chỉ 1 số)</t>
   </si>
 </sst>
 </file>
@@ -809,18 +821,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP3"/>
+  <dimension ref="A1:AR3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
-      <selection activeCell="AO5" sqref="AO5"/>
+    <sheetView tabSelected="1" topLeftCell="AE1" workbookViewId="0">
+      <selection activeCell="AN7" sqref="AN7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.69921875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.69921875" style="1"/>
+    <col min="1" max="41" width="11.69921875" style="1"/>
+    <col min="42" max="42" width="33.3984375" style="1" customWidth="1"/>
+    <col min="43" max="16384" width="11.69921875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" s="2" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" s="2" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
         <v>79</v>
       </c>
@@ -947,8 +961,14 @@
       <c r="AP1" s="13" t="s">
         <v>83</v>
       </c>
+      <c r="AQ1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="AR1" s="2" t="s">
+        <v>103</v>
+      </c>
     </row>
-    <row r="2" spans="1:42" ht="52.8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:44" ht="52.8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1075,13 +1095,19 @@
       <c r="AP2" s="13" t="s">
         <v>82</v>
       </c>
+      <c r="AQ2" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="AR2" s="1" t="s">
+        <v>105</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:44" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E3" s="14">
         <v>10111195</v>
@@ -1111,10 +1137,10 @@
         <v>2022239</v>
       </c>
       <c r="N3" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="O3" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="O3" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="P3" s="15">
         <f t="shared" ref="P3" si="0">R3+Q3</f>
@@ -1127,19 +1153,19 @@
         <v>6000000</v>
       </c>
       <c r="S3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="U3" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="U3" s="1" t="s">
+      <c r="W3" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="X3" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="W3" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="X3" s="1" t="s">
+      <c r="Z3" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="Z3" s="1" t="s">
-        <v>91</v>
       </c>
       <c r="AA3" s="14">
         <v>11429575</v>
@@ -1149,34 +1175,40 @@
         <v>0</v>
       </c>
       <c r="AG3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="AH3" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="AH3" s="1" t="s">
+      <c r="AI3" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="AI3" s="1" t="s">
+      <c r="AJ3" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="AJ3" s="1" t="s">
+      <c r="AK3" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="AK3" s="1" t="s">
+      <c r="AL3" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="AL3" s="1" t="s">
+      <c r="AM3" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="AM3" s="1" t="s">
+      <c r="AN3" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AN3" s="1" t="s">
+      <c r="AO3" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AO3" s="1" t="s">
+      <c r="AP3" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AP3" s="1" t="s">
-        <v>101</v>
+      <c r="AQ3" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="1">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
